--- a/Texts/Город Сокровищ/Все персонажи/Слоупок.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Слоупок.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -46,6 +46,42 @@
   </si>
   <si>
     <t xml:space="preserve"> Íú Ëïíàîäà [CS:X]Ìåîóÿé[CR].[K] Íú ëïíàîäà\néòòìåäïâàóåìåê áåè ëàëïê-ìéáï íïóéâàøéé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re Team [CS:X]Slacker[CR].[K] We\'re the\nexploration team without any motivation.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um0603.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ve heard other exploration\nteams are losing their will to work. You know,\nbecause of the stench.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um0605.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It didn\'t have any effect on us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yup.[K] We didn\'t have any energy\nto begin with.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ходят слухи, что другие команды\nисследователей отказываются от работы.\nВсё из-за запаха.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но нам как-то всё равно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ага.[K] Во-первых, у нас совсем\nнет сил.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïäÿó òìôöé, œóï äñôãéå ëïíàîäú\néòòìåäïâàóåìåê ïóëàèúâàýóòÿ ïó ñàáïóú.\nÂòæ éè-èà èàðàöà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï îàí ëàë-óï âòæ ñàâîï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Àãà.[K] Âï-ðåñâúö, ô îàò òïâòåí\nîåó òéì.</t>
   </si>
 </sst>
 </file>
@@ -76,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -108,11 +144,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -127,6 +183,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -409,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -442,21 +510,83 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>179</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8">
+        <v>160</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4">
+        <v>133</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>136</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>141</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Слоупок.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Слоупок.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -82,6 +82,30 @@
   </si>
   <si>
     <t xml:space="preserve"> Àãà.[K] Âï-ðåñâúö, ô îàò òïâòåí\nîåó òéì.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/T01P01A/um1109.ssb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, hi. How was your\nexpedition?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wasn\'t it too much work?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, привет. Как прошла\nэкспедиция?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы не перетрудились?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, ðñéâåó. Ëàë ðñïšìà\nüëòðåäéøéÿ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú îå ðåñåóñôäéìéòû?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1112.ssb</t>
   </si>
 </sst>
 </file>
@@ -477,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,17 +600,52 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8">
         <v>141</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="9" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4">
+        <v>108</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4">
+        <v>111</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Слоупок.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Слоупок.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -106,6 +106,21 @@
   </si>
   <si>
     <t>SCRIPT/T01P01A/um1112.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1318.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They say if you take a Time\nGear away, the time stops where that Time\nGear was.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Говорят, что если убрать\nШестерню Времени, то там, где она была,\nостановится время.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãïâïñÿó, œóï åòìé ôáñàóû\nŠåòóåñîý Âñåíåîé, óï óàí, ãäå ïîà áúìà,\nïòóàîïâéóòÿ âñåíÿ.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1404.ssb</t>
   </si>
 </sst>
 </file>
@@ -501,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,20 +647,42 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="8">
         <v>111</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="9" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4">
+        <v>89</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Слоупок.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Слоупок.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -121,6 +121,27 @@
   </si>
   <si>
     <t>SCRIPT/T01P02A/um1404.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The planet will be paralyzed if\nsomething\'s not done?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'d offer to help...[K]but being\nmotivated isn\'t really our thing…</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um2204.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если что-то не сделать, то\nпланету парализует?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы бы с радостью помогли...[K]\nНо мотивация это не про нас...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé œóï-óï îå òäåìàóû, óï\nðìàîåóô ðàñàìéèôåó?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú áú ò ñàäïòóûý ðïíïãìé...[K]\nÎï íïóéâàøéÿ üóï îå ðñï îàò...</t>
   </si>
 </sst>
 </file>
@@ -516,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,8 +702,43 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="8" t="s">
         <v>33</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4">
+        <v>67</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>70</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Слоупок.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Слоупок.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -142,6 +142,27 @@
   </si>
   <si>
     <t xml:space="preserve"> Íú áú ò ñàäïòóûý ðïíïãìé...[K]\nÎï íïóéâàøéÿ üóï îå ðñï îàò...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/P01P04A/us0201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> First time I come here, and\nthe place is empty…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This shop is lacking drive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я пришёл сюда впервые, но тут\nтак пусто...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Этому месту не хватает жизни.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðñéšæì òýäà âðåñâúå, îï óôó\nóàë ðôòóï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóïíô íåòóô îå öâàóàåó çéèîé.</t>
   </si>
 </sst>
 </file>
@@ -172,7 +193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -224,11 +245,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -255,6 +285,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -537,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,17 +764,49 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10">
         <v>70</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="11" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="4">
+        <v>45</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>48</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Слоупок.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Слоупок.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -163,6 +163,36 @@
   </si>
   <si>
     <t xml:space="preserve"> Üóïíô íåòóô îå öâàóàåó çéèîé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ve been away from Treasure\nTown for some time…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I like it here. It\'s so laid back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh...[K] My motivation\'s\nslipping already…</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2307.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы уже давно не были в Городе\nСокровищ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мне здесь нравится. Тут спокойно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ох...[K] Мотивация ускользает...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ôçå äàâîï îå áúìé â Ãïñïäå\nÒïëñïâéþ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íîå èäåòû îñàâéóòÿ. Óôó òðïëïêîï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïö...[K] Íïóéâàøéÿ ôòëïìûèàåó...</t>
   </si>
 </sst>
 </file>
@@ -573,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,17 +826,63 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="4">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8">
         <v>48</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="9" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="4">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>25</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
